--- a/Contribution Matrix.xlsx
+++ b/Contribution Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eidal\PycharmProjects\CSC2033GroupCoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B959AE-7A22-42A6-9B07-7132296D9119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F325A-960E-418A-978A-3A0C89B29A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11505" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
+    <workbookView xWindow="9840" yWindow="2295" windowWidth="14055" windowHeight="11505" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -52,6 +52,36 @@
   </si>
   <si>
     <t>Elvis Edward Robinson (c0044181)</t>
+  </si>
+  <si>
+    <t>app.py</t>
+  </si>
+  <si>
+    <t>models.py</t>
+  </si>
+  <si>
+    <t>sql_handler.py</t>
+  </si>
+  <si>
+    <t>users/forms.py</t>
+  </si>
+  <si>
+    <t>users/views.py</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>Asteroid Game</t>
+  </si>
+  <si>
+    <t>Quiz Game</t>
+  </si>
+  <si>
+    <t>Hangman Game</t>
+  </si>
+  <si>
+    <t>Choose Path Game</t>
   </si>
 </sst>
 </file>
@@ -446,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F12FA6-116B-4F3E-90B3-75D5EFE6D59C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +513,55 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Contribution Matrix.xlsx
+++ b/Contribution Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eidal\PycharmProjects\CSC2033GroupCoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F325A-960E-418A-978A-3A0C89B29A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AFF0D1-B810-4B3D-BD69-6B6371ECF8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="2295" windowWidth="14055" windowHeight="11505" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
   </bookViews>
@@ -479,12 +479,12 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>

--- a/Contribution Matrix.xlsx
+++ b/Contribution Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eidal\PycharmProjects\CSC2033GroupCoursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\PycharmProjects\CSC2033Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AFF0D1-B810-4B3D-BD69-6B6371ECF8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939632A-6A30-49C5-83DD-D19E0D6D470B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2295" windowWidth="14055" windowHeight="11505" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Choose Path Game</t>
+  </si>
+  <si>
+    <t>C,M,R,T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>admin/views.py</t>
+  </si>
+  <si>
+    <t>base.css</t>
   </si>
 </sst>
 </file>
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F12FA6-116B-4F3E-90B3-75D5EFE6D59C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,51 +528,96 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution Matrix.xlsx
+++ b/Contribution Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\PycharmProjects\CSC2033Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eidal\PycharmProjects\CSC2033GroupCoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939632A-6A30-49C5-83DD-D19E0D6D470B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EFB92D-8E49-4537-889D-A2B1A29CC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -72,9 +72,6 @@
     <t>templates</t>
   </si>
   <si>
-    <t>Asteroid Game</t>
-  </si>
-  <si>
     <t>Quiz Game</t>
   </si>
   <si>
@@ -94,6 +91,33 @@
   </si>
   <si>
     <t>base.css</t>
+  </si>
+  <si>
+    <t>M, R, T</t>
+  </si>
+  <si>
+    <t>C, M, T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>C, M, R, T</t>
+  </si>
+  <si>
+    <t>static/websiteResources/AsteroidGame/asteroid.js</t>
+  </si>
+  <si>
+    <t>static/websiteResources/AsteroidGame/asteroid_spritesheet.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C, M, R </t>
+  </si>
+  <si>
+    <t>static/websiteResources/AsteroidGame/asteroid.css</t>
+  </si>
+  <si>
+    <t>C, M, R</t>
   </si>
 </sst>
 </file>
@@ -177,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7308D38D-5484-43D4-AE95-DEF39C111074}" name="Table1" displayName="Table1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F25" xr:uid="{7308D38D-5484-43D4-AE95-DEF39C111074}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7308D38D-5484-43D4-AE95-DEF39C111074}" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F28" xr:uid="{7308D38D-5484-43D4-AE95-DEF39C111074}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E458463D-E14E-497A-BE1F-6C8368AA86CF}" name="Task"/>
     <tableColumn id="2" xr3:uid="{77B1BB23-110A-4FF8-802B-DE83DAF10459}" name="Kyle Darren Anderson (c0010105)"/>
@@ -488,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F12FA6-116B-4F3E-90B3-75D5EFE6D59C}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -529,7 +553,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,6 +564,9 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -545,7 +575,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -553,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -561,7 +594,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,44 +605,39 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -614,10 +645,34 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution Matrix.xlsx
+++ b/Contribution Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eidal\PycharmProjects\CSC2033GroupCoursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elvis\PycharmProjects\CSC2033Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EFB92D-8E49-4537-889D-A2B1A29CC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D9506-4C4D-448F-8514-068735080B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -515,20 +515,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -558,8 +558,11 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -569,8 +572,11 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -581,15 +587,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -599,8 +608,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -608,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -619,7 +631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -627,7 +639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -635,15 +647,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -651,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -659,7 +674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -667,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>

--- a/Contribution Matrix.xlsx
+++ b/Contribution Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elvis\PycharmProjects\CSC2033Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\PycharmProjects\CSC2033\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D9506-4C4D-448F-8514-068735080B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F6500-7D17-442D-9B74-52CCEF132583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
+    <workbookView xWindow="23865" yWindow="3015" windowWidth="28800" windowHeight="11385" xr2:uid="{AAC4A9CB-F869-463E-9A10-3470FDEC470C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -515,20 +515,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -558,11 +558,14 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -572,11 +575,14 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -587,18 +593,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -608,11 +617,14 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -620,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -631,7 +643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -639,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -647,7 +659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -658,15 +670,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -674,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -682,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
